--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -106,12 +106,12 @@
     <t>safety</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -130,10 +130,10 @@
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>hope</t>
@@ -1197,25 +1197,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.73568281938326</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L20">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1223,25 +1223,25 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="N21">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1405,25 +1405,25 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.6238532110091743</v>
+        <v>0.62</v>
       </c>
       <c r="L28">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1431,13 +1431,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="10:17">
